--- a/input/mappings/scaling/EMEP_LEVEL2_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_LEVEL2_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="0" windowWidth="9700" windowHeight="20700" tabRatio="500"/>
+    <workbookView xWindow="17780" yWindow="4580" windowWidth="26320" windowHeight="20000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -416,9 +416,6 @@
     <t>1A3di_International-shipping</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
     <t>1A3eii_Other-transp</t>
   </si>
   <si>
@@ -498,6 +495,9 @@
   </si>
   <si>
     <t>11C_Other-natural</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation</t>
   </si>
 </sst>
 </file>
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101:C107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1338,10 +1338,10 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1351,7 +1351,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="2"/>
       <c r="E28" s="2"/>
@@ -1362,10 +1362,10 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1375,7 +1375,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="2"/>
       <c r="E30" s="2"/>
@@ -1386,10 +1386,10 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1399,7 +1399,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="2"/>
       <c r="E32" s="2"/>
@@ -1410,10 +1410,10 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1423,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
@@ -1434,7 +1434,7 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="2"/>
       <c r="E35" s="2"/>
@@ -1445,10 +1445,10 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1458,7 +1458,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="2"/>
       <c r="E37" s="2"/>
@@ -1469,7 +1469,7 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="2"/>
       <c r="E38" s="2"/>
@@ -1480,10 +1480,10 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1493,10 +1493,10 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1506,7 +1506,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" s="2"/>
       <c r="E41" s="2"/>
@@ -1526,7 +1526,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="2"/>
       <c r="E43" s="2"/>
@@ -1537,7 +1537,7 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" s="2"/>
       <c r="E44" s="2"/>
@@ -1548,7 +1548,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="2"/>
       <c r="E45" s="2"/>
@@ -1559,7 +1559,7 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" s="2"/>
       <c r="E46" s="2"/>
@@ -1570,7 +1570,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" s="2"/>
       <c r="E47" s="2"/>
@@ -1581,10 +1581,10 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1594,10 +1594,10 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1607,10 +1607,10 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1637,10 +1637,10 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -1650,7 +1650,7 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" s="2"/>
       <c r="E54" s="2"/>
@@ -1661,7 +1661,7 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="2"/>
       <c r="E55" s="2"/>
@@ -1672,7 +1672,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="2"/>
       <c r="E56" s="2"/>
@@ -1683,7 +1683,7 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C57" s="2"/>
       <c r="E57" s="2"/>
@@ -1694,7 +1694,7 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="2"/>
       <c r="E58" s="2"/>
@@ -1705,7 +1705,7 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59" s="2"/>
       <c r="E59" s="2"/>
@@ -1716,10 +1716,10 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -1729,10 +1729,10 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -1742,7 +1742,7 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" s="2"/>
@@ -1753,7 +1753,7 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C63" s="2"/>
       <c r="E63" s="2"/>
@@ -1764,7 +1764,7 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="2"/>
       <c r="E64" s="2"/>
@@ -1775,7 +1775,7 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="2"/>
       <c r="E65" s="2"/>
@@ -1786,7 +1786,7 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C66" s="2"/>
       <c r="E66" s="2"/>
@@ -1797,7 +1797,7 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2"/>
       <c r="E67" s="2"/>
@@ -1808,7 +1808,7 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C68" s="2"/>
       <c r="E68" s="2"/>
@@ -1819,7 +1819,7 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="2"/>
       <c r="E69" s="2"/>
@@ -1830,7 +1830,7 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" s="2"/>
@@ -1841,7 +1841,7 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71" s="2"/>
       <c r="E71" s="2"/>
@@ -1852,7 +1852,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="2"/>
       <c r="E72" s="2"/>
@@ -1863,7 +1863,7 @@
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" s="2"/>
       <c r="E73" s="2"/>
@@ -1874,7 +1874,7 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74" s="2"/>
       <c r="E74" s="2"/>
@@ -1885,7 +1885,7 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C75" s="2"/>
       <c r="E75" s="2"/>
@@ -1896,7 +1896,7 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C76" s="2"/>
       <c r="E76" s="2"/>
@@ -1907,7 +1907,7 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C77" s="2"/>
       <c r="E77" s="2"/>
@@ -1918,10 +1918,10 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -1931,10 +1931,10 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -1944,7 +1944,7 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" s="2"/>
       <c r="E80" s="2"/>
@@ -1955,7 +1955,7 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" s="2"/>
       <c r="E81" s="2"/>
@@ -1966,10 +1966,10 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -1979,10 +1979,10 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -1992,7 +1992,7 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84" s="2"/>
@@ -2003,10 +2003,10 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -2016,7 +2016,7 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C86" s="2"/>
       <c r="E86" s="2"/>
@@ -2027,7 +2027,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C87" s="2"/>
       <c r="E87" s="2"/>
@@ -2038,10 +2038,10 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -2051,10 +2051,10 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -2064,10 +2064,10 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -2077,7 +2077,7 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C91" s="2"/>
       <c r="E91" s="2"/>
@@ -2088,10 +2088,10 @@
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -2101,7 +2101,7 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C93" s="2"/>
       <c r="E93" s="2"/>
@@ -2112,7 +2112,7 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C94" s="2"/>
       <c r="E94" s="2"/>
@@ -2123,7 +2123,7 @@
         <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C95" s="2"/>
       <c r="E95" s="2"/>
@@ -2134,7 +2134,7 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C96" s="2"/>
       <c r="E96" s="2"/>
@@ -2145,7 +2145,7 @@
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C97" s="2"/>
       <c r="E97" s="2"/>
@@ -2156,10 +2156,10 @@
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -2169,7 +2169,7 @@
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C99" s="2"/>
       <c r="E99" s="2"/>
@@ -2180,7 +2180,7 @@
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C100" s="2"/>
       <c r="E100" s="2"/>
@@ -2191,10 +2191,10 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -2204,10 +2204,10 @@
         <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -2217,10 +2217,10 @@
         <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -2230,10 +2230,10 @@
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -2243,10 +2243,10 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -2256,10 +2256,10 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -2269,10 +2269,10 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -2446,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
